--- a/notebooks/气压的变化.xlsx
+++ b/notebooks/气压的变化.xlsx
@@ -19,11 +19,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,19 +46,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,8 +61,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,6 +81,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,24 +115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,7 +124,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,14 +139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,24 +153,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,7 +191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +203,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,25 +263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,37 +281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,37 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,9 +390,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,28 +438,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,142 +481,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2310,7 +2303,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0522625595892923"/>
+          <c:x val="0.0713311331133117"/>
           <c:y val="0.12882787750792"/>
           <c:w val="0.926468646864686"/>
           <c:h val="0.809081309398099"/>
@@ -4333,16 +4326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4350,7 +4343,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5565775" y="650875"/>
+        <a:off x="2870200" y="5803900"/>
         <a:ext cx="8658225" cy="4209415"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4653,7 +4646,7 @@
   <sheetPr/>
   <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
